--- a/nodes_source_analyses/households/households_space_heater_hybrid_hydrogen_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_hybrid_hydrogen_heatpump_air_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosdekok/etm/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0E7719-55CE-7647-89D2-683C553D99FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E5B28-CFCD-1145-A9E2-68DE0FC45660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -46,6 +46,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="242">
   <si>
     <t>Source</t>
   </si>
@@ -941,6 +942,9 @@
   <si>
     <t>MJ/kg</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -953,12 +957,19 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1126,6 +1137,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1133,6 +1145,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1140,6 +1153,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1147,6 +1161,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1154,17 +1169,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1178,11 +1196,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1210,6 +1230,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1507,837 +1533,838 @@
   </borders>
   <cellStyleXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="35" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="379">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3971,8 +3998,8 @@
   </sheetPr>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3997,28 +4024,28 @@
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="261" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="254"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="263"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="255"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="257"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="266"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="39" customHeight="1">
-      <c r="B4" s="258"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="260"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="269"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
     </row>
@@ -4757,17 +4784,15 @@
         <v>2</v>
       </c>
       <c r="E40" s="99">
-        <f>'Research data'!E36</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="28"/>
-      <c r="I40" s="111" t="str">
-        <f>LOOKUP(E40,'Research data'!G36:S36,'Research data'!G$3:S$3)</f>
-        <v>Quintel WD</v>
+      <c r="I40" s="270" t="s">
+        <v>241</v>
       </c>
       <c r="J40" s="85"/>
     </row>
@@ -4780,14 +4805,14 @@
         <v>9</v>
       </c>
       <c r="E41" s="99">
-        <f>'Research data'!E37</f>
+        <f>'Research data'!E36</f>
         <v>0</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="111" t="str">
-        <f>LOOKUP(E41,'Research data'!G37:S37,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E41,'Research data'!G36:S36,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J41" s="85"/>
@@ -4801,7 +4826,7 @@
         <v>169</v>
       </c>
       <c r="E42" s="143">
-        <f>'Research data'!E38</f>
+        <f>'Research data'!E37</f>
         <v>0</v>
       </c>
       <c r="F42" s="28"/>
@@ -4846,7 +4871,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="99">
-        <f>'Research data'!E41</f>
+        <f>'Research data'!E40</f>
         <v>0</v>
       </c>
       <c r="F45" s="28"/>
@@ -4855,7 +4880,7 @@
       </c>
       <c r="H45" s="28"/>
       <c r="I45" s="111" t="str">
-        <f>LOOKUP(E45,'Research data'!G41:S41,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E45,'Research data'!G40:S40,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J45" s="85"/>
@@ -4869,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="99">
-        <f>'Research data'!E42</f>
+        <f>'Research data'!E41</f>
         <v>0</v>
       </c>
       <c r="F46" s="28"/>
@@ -4878,7 +4903,7 @@
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="111" t="str">
-        <f>LOOKUP(E46,'Research data'!G42:S42,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E46,'Research data'!G41:S41,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J46" s="85"/>
@@ -4892,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="99">
-        <f>'Research data'!E43</f>
+        <f>'Research data'!E42</f>
         <v>15</v>
       </c>
       <c r="F47" s="28"/>
@@ -4901,7 +4926,7 @@
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="111" t="str">
-        <f>LOOKUP(E47,'Research data'!G43:S43,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E47,'Research data'!G42:S42,'Research data'!G$3:S$3)</f>
         <v>DHPA</v>
       </c>
       <c r="J47" s="85"/>
@@ -4915,14 +4940,14 @@
         <v>4</v>
       </c>
       <c r="E48" s="99">
-        <f>'Research data'!E44</f>
+        <f>'Research data'!E43</f>
         <v>0</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="111" t="str">
-        <f>LOOKUP(E48,'Research data'!G44:S44,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E48,'Research data'!G43:S43,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J48" s="85"/>
@@ -4936,14 +4961,14 @@
         <v>4</v>
       </c>
       <c r="E49" s="99">
-        <f>'Research data'!E45</f>
+        <f>'Research data'!E44</f>
         <v>0</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="111" t="str">
-        <f>LOOKUP(E49,'Research data'!G45:S45,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E49,'Research data'!G44:S44,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J49" s="85"/>
@@ -4957,14 +4982,14 @@
         <v>4</v>
       </c>
       <c r="E50" s="99">
-        <f>'Research data'!E46</f>
+        <f>'Research data'!E45</f>
         <v>0</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="111" t="str">
-        <f>LOOKUP(E50,'Research data'!G46:S46,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E50,'Research data'!G45:S45,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J50" s="85"/>
@@ -4978,14 +5003,14 @@
         <v>4</v>
       </c>
       <c r="E51" s="99">
-        <f>'Research data'!E47</f>
+        <f>'Research data'!E46</f>
         <v>11.5</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="111" t="str">
-        <f>LOOKUP(E51,'Research data'!G47:S47,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E51,'Research data'!G46:S46,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J51" s="85"/>
@@ -4999,14 +5024,14 @@
         <v>4</v>
       </c>
       <c r="E52" s="99">
-        <f>'Research data'!E48</f>
+        <f>'Research data'!E47</f>
         <v>2</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="111" t="str">
-        <f>LOOKUP(E52,'Research data'!G48:S48,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E52,'Research data'!G47:S47,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J52" s="85"/>
@@ -5020,14 +5045,14 @@
         <v>4</v>
       </c>
       <c r="E53" s="99">
-        <f>'Research data'!E49</f>
+        <f>'Research data'!E48</f>
         <v>11.5</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="111" t="str">
-        <f>LOOKUP(E53,'Research data'!G49:S49,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E53,'Research data'!G48:S48,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J53" s="85"/>
@@ -5061,10 +5086,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -5425,38 +5450,38 @@
       <c r="S11" s="161"/>
       <c r="T11" s="150"/>
     </row>
-    <row r="12" spans="2:20" s="262" customFormat="1" ht="17" thickBot="1">
-      <c r="B12" s="263"/>
-      <c r="C12" s="264" t="str">
+    <row r="12" spans="2:20" s="253" customFormat="1" ht="17" thickBot="1">
+      <c r="B12" s="254"/>
+      <c r="C12" s="255" t="str">
         <f>Dashboard!C16</f>
         <v>output.useable_heat.hydrogen</v>
       </c>
-      <c r="D12" s="264" t="str">
+      <c r="D12" s="255" t="str">
         <f>Dashboard!D16</f>
         <v>-</v>
       </c>
-      <c r="E12" s="265">
+      <c r="E12" s="256">
         <f>H12</f>
         <v>1.1282455572931476</v>
       </c>
-      <c r="F12" s="266"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="268">
+      <c r="F12" s="257"/>
+      <c r="G12" s="258"/>
+      <c r="H12" s="259">
         <f>Notes!E61</f>
         <v>1.1282455572931476</v>
       </c>
-      <c r="I12" s="267"/>
-      <c r="J12" s="267"/>
-      <c r="K12" s="267"/>
-      <c r="L12" s="267"/>
-      <c r="M12" s="267"/>
-      <c r="N12" s="267"/>
-      <c r="O12" s="267"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="267"/>
-      <c r="R12" s="267"/>
-      <c r="S12" s="267"/>
-      <c r="T12" s="269"/>
+      <c r="I12" s="258"/>
+      <c r="J12" s="258"/>
+      <c r="K12" s="258"/>
+      <c r="L12" s="258"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="258"/>
+      <c r="O12" s="258"/>
+      <c r="P12" s="258"/>
+      <c r="Q12" s="258"/>
+      <c r="R12" s="258"/>
+      <c r="S12" s="258"/>
+      <c r="T12" s="260"/>
     </row>
     <row r="13" spans="2:20" ht="17" thickBot="1">
       <c r="B13" s="59"/>
@@ -6029,7 +6054,7 @@
         <v>euro</v>
       </c>
       <c r="E30" s="162">
-        <f t="shared" ref="E30:E37" si="2">G30</f>
+        <f t="shared" ref="E30:E36" si="2">G30</f>
         <v>0</v>
       </c>
       <c r="F30" s="171"/>
@@ -6239,22 +6264,23 @@
       <c r="A36" s="103"/>
       <c r="B36" s="104"/>
       <c r="C36" s="98" t="str">
-        <f>Dashboard!C40</f>
-        <v>wacc</v>
+        <f>Dashboard!C41</f>
+        <v>takes_part_in_ets</v>
       </c>
       <c r="D36" s="98" t="str">
-        <f>Dashboard!D40</f>
-        <v>%</v>
-      </c>
-      <c r="E36" s="166">
-        <f>G36</f>
-        <v>0.04</v>
+        <f>Dashboard!D41</f>
+        <v>yes=1, no=0</v>
+      </c>
+      <c r="E36" s="162">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F36" s="171"/>
-      <c r="G36" s="166">
-        <v>0.04</v>
-      </c>
-      <c r="H36" s="170"/>
+      <c r="G36" s="162">
+        <f>I36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="165"/>
       <c r="I36" s="167"/>
       <c r="J36" s="167"/>
       <c r="K36" s="167"/>
@@ -6267,30 +6293,27 @@
       <c r="R36" s="167"/>
       <c r="S36" s="167"/>
       <c r="T36" s="150" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="17" thickBot="1">
       <c r="A37" s="103"/>
       <c r="B37" s="104"/>
       <c r="C37" s="98" t="str">
-        <f>Dashboard!C41</f>
-        <v>takes_part_in_ets</v>
+        <f>Dashboard!C42</f>
+        <v>storage.cost_per_mwh</v>
       </c>
       <c r="D37" s="98" t="str">
-        <f>Dashboard!D41</f>
-        <v>yes=1, no=0</v>
+        <f>Dashboard!D42</f>
+        <v>euro/MWh</v>
       </c>
       <c r="E37" s="162">
-        <f t="shared" si="2"/>
+        <f>R37</f>
         <v>0</v>
       </c>
       <c r="F37" s="171"/>
-      <c r="G37" s="162">
-        <f>I37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="165"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
       <c r="I37" s="167"/>
       <c r="J37" s="167"/>
       <c r="K37" s="167"/>
@@ -6298,55 +6321,46 @@
       <c r="M37" s="167"/>
       <c r="N37" s="167"/>
       <c r="O37" s="167"/>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="167"/>
-      <c r="R37" s="167"/>
+      <c r="P37" s="223">
+        <f>Notes!E296</f>
+        <v>164988.7302779865</v>
+      </c>
+      <c r="Q37" s="242">
+        <f>Notes!E304</f>
+        <v>154736.84210526317</v>
+      </c>
+      <c r="R37" s="243"/>
       <c r="S37" s="167"/>
-      <c r="T37" s="150" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="17" thickBot="1">
+      <c r="T37" s="150"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="103"/>
       <c r="B38" s="104"/>
-      <c r="C38" s="98" t="str">
-        <f>Dashboard!C42</f>
-        <v>storage.cost_per_mwh</v>
-      </c>
-      <c r="D38" s="98" t="str">
-        <f>Dashboard!D42</f>
-        <v>euro/MWh</v>
-      </c>
-      <c r="E38" s="162">
-        <f>R38</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="171"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="167"/>
-      <c r="O38" s="167"/>
-      <c r="P38" s="223">
-        <f>Notes!E296</f>
-        <v>164988.7302779865</v>
-      </c>
-      <c r="Q38" s="242">
-        <f>Notes!E304</f>
-        <v>154736.84210526317</v>
-      </c>
-      <c r="R38" s="243"/>
-      <c r="S38" s="167"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
       <c r="T38" s="150"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" ht="17" thickBot="1">
       <c r="A39" s="103"/>
       <c r="B39" s="104"/>
-      <c r="C39" s="26"/>
+      <c r="C39" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="63"/>
@@ -6368,37 +6382,49 @@
     <row r="40" spans="1:20" ht="17" thickBot="1">
       <c r="A40" s="103"/>
       <c r="B40" s="104"/>
-      <c r="C40" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="151"/>
-      <c r="P40" s="151"/>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="151"/>
-      <c r="S40" s="151"/>
-      <c r="T40" s="150"/>
+      <c r="C40" s="98" t="str">
+        <f>Dashboard!C45</f>
+        <v>land_use_per_unit</v>
+      </c>
+      <c r="D40" s="98" t="str">
+        <f>Dashboard!D45</f>
+        <v>km2</v>
+      </c>
+      <c r="E40" s="162">
+        <f>G40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="171"/>
+      <c r="G40" s="162">
+        <f>I40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="165"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="167"/>
+      <c r="O40" s="167"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="167"/>
+      <c r="T40" s="150" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="17" thickBot="1">
       <c r="A41" s="103"/>
       <c r="B41" s="104"/>
       <c r="C41" s="98" t="str">
-        <f>Dashboard!C45</f>
-        <v>land_use_per_unit</v>
+        <f>Dashboard!C46</f>
+        <v>construction_time</v>
       </c>
       <c r="D41" s="98" t="str">
-        <f>Dashboard!D45</f>
-        <v>km2</v>
+        <f>Dashboard!D46</f>
+        <v>years</v>
       </c>
       <c r="E41" s="162">
         <f>G41</f>
@@ -6429,95 +6455,95 @@
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
       <c r="C42" s="98" t="str">
-        <f>Dashboard!C46</f>
-        <v>construction_time</v>
+        <f>Dashboard!C47</f>
+        <v>technical_lifetime</v>
       </c>
       <c r="D42" s="98" t="str">
-        <f>Dashboard!D46</f>
+        <f>Dashboard!D47</f>
         <v>years</v>
       </c>
       <c r="E42" s="162">
-        <f>G42</f>
-        <v>0</v>
+        <f>N42</f>
+        <v>15</v>
       </c>
       <c r="F42" s="171"/>
-      <c r="G42" s="162">
-        <f>I42</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="165"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
       <c r="I42" s="167"/>
       <c r="J42" s="167"/>
       <c r="K42" s="167"/>
       <c r="L42" s="167"/>
       <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
+      <c r="N42" s="172">
+        <f>Notes!E237</f>
+        <v>15</v>
+      </c>
       <c r="O42" s="167"/>
       <c r="P42" s="167"/>
       <c r="Q42" s="167"/>
       <c r="R42" s="167"/>
       <c r="S42" s="167"/>
-      <c r="T42" s="150" t="s">
-        <v>115</v>
+      <c r="T42" s="179" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="17" thickBot="1">
       <c r="A43" s="103"/>
       <c r="B43" s="104"/>
       <c r="C43" s="98" t="str">
-        <f>Dashboard!C47</f>
-        <v>technical_lifetime</v>
+        <f>Dashboard!C48</f>
+        <v>free_co2_factor</v>
       </c>
       <c r="D43" s="98" t="str">
-        <f>Dashboard!D47</f>
-        <v>years</v>
+        <f>Dashboard!D48</f>
+        <v>-</v>
       </c>
       <c r="E43" s="162">
-        <f>N43</f>
-        <v>15</v>
+        <f t="shared" ref="E43:E48" si="3">G43</f>
+        <v>0</v>
       </c>
       <c r="F43" s="171"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
+      <c r="G43" s="162">
+        <f>I43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="165"/>
       <c r="I43" s="167"/>
       <c r="J43" s="167"/>
       <c r="K43" s="167"/>
       <c r="L43" s="167"/>
       <c r="M43" s="167"/>
-      <c r="N43" s="172">
-        <f>Notes!E237</f>
-        <v>15</v>
-      </c>
+      <c r="N43" s="167"/>
       <c r="O43" s="167"/>
       <c r="P43" s="167"/>
       <c r="Q43" s="167"/>
       <c r="R43" s="167"/>
       <c r="S43" s="167"/>
-      <c r="T43" s="179" t="s">
-        <v>151</v>
+      <c r="T43" s="150" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="17" thickBot="1">
       <c r="A44" s="103"/>
       <c r="B44" s="104"/>
       <c r="C44" s="98" t="str">
-        <f>Dashboard!C48</f>
-        <v>free_co2_factor</v>
+        <f>Dashboard!C49</f>
+        <v>hours_prep_nl</v>
       </c>
       <c r="D44" s="98" t="str">
-        <f>Dashboard!D48</f>
+        <f>Dashboard!D49</f>
         <v>-</v>
       </c>
       <c r="E44" s="162">
-        <f t="shared" ref="E44:E49" si="3">G44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" s="171"/>
-      <c r="G44" s="162">
+      <c r="G44" s="176">
         <f>I44</f>
         <v>0</v>
       </c>
-      <c r="H44" s="165"/>
+      <c r="H44" s="180"/>
       <c r="I44" s="167"/>
       <c r="J44" s="167"/>
       <c r="K44" s="167"/>
@@ -6530,18 +6556,18 @@
       <c r="R44" s="167"/>
       <c r="S44" s="167"/>
       <c r="T44" s="150" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="17" thickBot="1">
       <c r="A45" s="103"/>
       <c r="B45" s="104"/>
       <c r="C45" s="98" t="str">
-        <f>Dashboard!C49</f>
-        <v>hours_prep_nl</v>
+        <f>Dashboard!C50</f>
+        <v>hours_prod_nl</v>
       </c>
       <c r="D45" s="98" t="str">
-        <f>Dashboard!D49</f>
+        <f>Dashboard!D50</f>
         <v>-</v>
       </c>
       <c r="E45" s="162">
@@ -6573,23 +6599,23 @@
       <c r="A46" s="103"/>
       <c r="B46" s="104"/>
       <c r="C46" s="98" t="str">
-        <f>Dashboard!C50</f>
-        <v>hours_prod_nl</v>
+        <f>Dashboard!C51</f>
+        <v>hours_place_nl</v>
       </c>
       <c r="D46" s="98" t="str">
-        <f>Dashboard!D50</f>
+        <f>Dashboard!D51</f>
         <v>-</v>
       </c>
-      <c r="E46" s="162">
+      <c r="E46" s="176">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="F46" s="171"/>
-      <c r="G46" s="176">
-        <f>I46</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="180"/>
+      <c r="G46" s="181">
+        <f>4.5+7</f>
+        <v>11.5</v>
+      </c>
+      <c r="H46" s="182"/>
       <c r="I46" s="167"/>
       <c r="J46" s="167"/>
       <c r="K46" s="167"/>
@@ -6609,23 +6635,23 @@
       <c r="A47" s="103"/>
       <c r="B47" s="104"/>
       <c r="C47" s="98" t="str">
-        <f>Dashboard!C51</f>
-        <v>hours_place_nl</v>
+        <f>Dashboard!C52</f>
+        <v>hours_maint_nl</v>
       </c>
       <c r="D47" s="98" t="str">
-        <f>Dashboard!D51</f>
+        <f>Dashboard!D52</f>
         <v>-</v>
       </c>
       <c r="E47" s="176">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>2</v>
       </c>
       <c r="F47" s="171"/>
-      <c r="G47" s="181">
-        <f>4.5+7</f>
-        <v>11.5</v>
-      </c>
-      <c r="H47" s="182"/>
+      <c r="G47" s="176">
+        <f>1.5+0.5</f>
+        <v>2</v>
+      </c>
+      <c r="H47" s="180"/>
       <c r="I47" s="167"/>
       <c r="J47" s="167"/>
       <c r="K47" s="167"/>
@@ -6645,21 +6671,21 @@
       <c r="A48" s="103"/>
       <c r="B48" s="104"/>
       <c r="C48" s="98" t="str">
-        <f>Dashboard!C52</f>
-        <v>hours_maint_nl</v>
+        <f>Dashboard!C53</f>
+        <v>hours_remov_nl</v>
       </c>
       <c r="D48" s="98" t="str">
-        <f>Dashboard!D52</f>
+        <f>Dashboard!D53</f>
         <v>-</v>
       </c>
       <c r="E48" s="176">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>11.5</v>
       </c>
       <c r="F48" s="171"/>
       <c r="G48" s="176">
-        <f>1.5+0.5</f>
-        <v>2</v>
+        <f>7+4.5</f>
+        <v>11.5</v>
       </c>
       <c r="H48" s="180"/>
       <c r="I48" s="167"/>
@@ -6677,43 +6703,28 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="17" thickBot="1">
-      <c r="A49" s="103"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="98" t="str">
-        <f>Dashboard!C53</f>
-        <v>hours_remov_nl</v>
-      </c>
-      <c r="D49" s="98" t="str">
-        <f>Dashboard!D53</f>
-        <v>-</v>
-      </c>
-      <c r="E49" s="176">
-        <f t="shared" si="3"/>
-        <v>11.5</v>
-      </c>
-      <c r="F49" s="171"/>
-      <c r="G49" s="176">
-        <f>7+4.5</f>
-        <v>11.5</v>
-      </c>
-      <c r="H49" s="180"/>
-      <c r="I49" s="167"/>
-      <c r="J49" s="167"/>
-      <c r="K49" s="167"/>
-      <c r="L49" s="167"/>
-      <c r="M49" s="167"/>
-      <c r="N49" s="167"/>
-      <c r="O49" s="167"/>
-      <c r="P49" s="167"/>
-      <c r="Q49" s="167"/>
-      <c r="R49" s="167"/>
-      <c r="S49" s="167"/>
-      <c r="T49" s="150" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+    <row r="49" spans="2:20">
+      <c r="B49" s="59"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
+      <c r="S49" s="151"/>
+      <c r="T49" s="152"/>
+    </row>
+    <row r="50" spans="2:20">
       <c r="B50" s="59"/>
       <c r="C50" s="63"/>
       <c r="D50" s="63"/>
@@ -6734,7 +6745,7 @@
       <c r="S50" s="151"/>
       <c r="T50" s="152"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="2:20">
       <c r="B51" s="59"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
@@ -6755,47 +6766,26 @@
       <c r="S51" s="151"/>
       <c r="T51" s="152"/>
     </row>
-    <row r="52" spans="1:20">
-      <c r="B52" s="59"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="151"/>
-      <c r="K52" s="151"/>
-      <c r="L52" s="151"/>
-      <c r="M52" s="151"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="151"/>
-      <c r="P52" s="151"/>
-      <c r="Q52" s="151"/>
-      <c r="R52" s="151"/>
-      <c r="S52" s="151"/>
-      <c r="T52" s="152"/>
-    </row>
-    <row r="53" spans="1:20" ht="17" thickBot="1">
-      <c r="B53" s="153"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="155"/>
-      <c r="O53" s="155"/>
-      <c r="P53" s="155"/>
-      <c r="Q53" s="155"/>
-      <c r="R53" s="155"/>
-      <c r="S53" s="155"/>
-      <c r="T53" s="156"/>
+    <row r="52" spans="2:20" ht="17" thickBot="1">
+      <c r="B52" s="153"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="155"/>
+      <c r="Q52" s="155"/>
+      <c r="R52" s="155"/>
+      <c r="S52" s="155"/>
+      <c r="T52" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8418,12 +8408,12 @@
       <c r="B49" s="94"/>
       <c r="C49" s="92"/>
       <c r="D49" s="92"/>
-      <c r="E49" s="261">
+      <c r="E49" s="252">
         <f>E37/E39</f>
         <v>0.18744142455482662</v>
       </c>
       <c r="F49" s="226"/>
-      <c r="G49" s="261" t="s">
+      <c r="G49" s="252" t="s">
         <v>94</v>
       </c>
       <c r="I49" s="92"/>
@@ -8435,7 +8425,7 @@
       <c r="D50" s="92"/>
       <c r="E50" s="92"/>
       <c r="F50" s="92"/>
-      <c r="G50" s="262"/>
+      <c r="G50" s="253"/>
       <c r="I50" s="92"/>
       <c r="J50" s="95"/>
     </row>
@@ -8466,7 +8456,7 @@
       <c r="E53" s="92">
         <v>35.17</v>
       </c>
-      <c r="F53" s="261" t="s">
+      <c r="F53" s="252" t="s">
         <v>239</v>
       </c>
       <c r="G53" s="92"/>
@@ -8481,7 +8471,7 @@
       <c r="E54" s="89">
         <v>31.65</v>
       </c>
-      <c r="F54" s="261" t="s">
+      <c r="F54" s="252" t="s">
         <v>239</v>
       </c>
       <c r="H54" s="92"/>
@@ -8530,7 +8520,7 @@
       <c r="E58" s="89">
         <v>141</v>
       </c>
-      <c r="F58" s="262" t="s">
+      <c r="F58" s="253" t="s">
         <v>240</v>
       </c>
       <c r="H58" s="92"/>
@@ -8544,7 +8534,7 @@
       <c r="E59" s="89">
         <v>120</v>
       </c>
-      <c r="F59" s="262" t="s">
+      <c r="F59" s="253" t="s">
         <v>240</v>
       </c>
       <c r="H59" s="92"/>
@@ -8572,7 +8562,7 @@
         <f>E60/E59</f>
         <v>1.1282455572931476</v>
       </c>
-      <c r="G61" s="262" t="s">
+      <c r="G61" s="253" t="s">
         <v>232</v>
       </c>
       <c r="H61" s="92"/>
@@ -8607,7 +8597,7 @@
         <v>0.18744142455482662</v>
       </c>
       <c r="F64" s="92"/>
-      <c r="G64" s="261" t="s">
+      <c r="G64" s="252" t="s">
         <v>231</v>
       </c>
       <c r="H64" s="92"/>
